--- a/学习进度/进度统计总表.xlsx
+++ b/学习进度/进度统计总表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jisuanke\jisuanke\学习进度\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417F10EA-58F0-4CAC-A054-8AAB53A15798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18530" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>第一周6月15日-6月19日</t>
   </si>
@@ -72,6 +66,15 @@
     <t>陈画画</t>
   </si>
   <si>
+    <t>10/10</t>
+  </si>
+  <si>
+    <t>11/11</t>
+  </si>
+  <si>
+    <t>17/18</t>
+  </si>
+  <si>
     <t>刘雨缇</t>
   </si>
   <si>
@@ -81,32 +84,20 @@
     <t>张智强</t>
   </si>
   <si>
-    <t>10/10</t>
-  </si>
-  <si>
-    <t>11/11</t>
-  </si>
-  <si>
     <t>10/18</t>
-  </si>
-  <si>
-    <t>10/10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11/11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17/18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,21 +112,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -195,19 +510,273 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -217,33 +786,62 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -530,271 +1128,281 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B5:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="9.54296875"/>
+    <col min="3" max="3" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" ht="15" spans="2:12">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="2:12">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+    <row r="8" spans="2:12">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+    <row r="9" spans="2:12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+    <row r="10" ht="46" customHeight="1" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:12">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C7:C10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
     <mergeCell ref="D7:E10"/>
     <mergeCell ref="F7:G10"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习进度/进度统计总表.xlsx
+++ b/学习进度/进度统计总表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7275"/>
+    <workbookView windowWidth="17930" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>第一周6月15日-6月19日</t>
   </si>
@@ -72,30 +72,32 @@
     <t>11/11</t>
   </si>
   <si>
+    <t>18/18</t>
+  </si>
+  <si>
+    <t>刘雨缇</t>
+  </si>
+  <si>
+    <t>许诺</t>
+  </si>
+  <si>
     <t>17/18</t>
   </si>
   <si>
-    <t>刘雨缇</t>
-  </si>
-  <si>
-    <t>许诺</t>
-  </si>
-  <si>
     <t>张智强</t>
-  </si>
-  <si>
-    <t>10/18</t>
-  </si>
-  <si>
-    <t>18/18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,21 +112,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -184,48 +510,334 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -516,277 +1128,283 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B5:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="9.5"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:12">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" ht="14.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" ht="15" spans="2:12">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" ht="45.95" customHeight="1">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+    <row r="10" ht="45.95" customHeight="1" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:E10"/>
-    <mergeCell ref="F7:G10"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="L7:L10"/>
+    <mergeCell ref="D7:E10"/>
+    <mergeCell ref="F7:G10"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习进度/进度统计总表.xlsx
+++ b/学习进度/进度统计总表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>第一周6月15日-6月19日</t>
   </si>
@@ -85,6 +85,22 @@
   </si>
   <si>
     <t>18/18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42/42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28/28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30/30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -200,23 +216,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +538,7 @@
   <dimension ref="B5:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -531,24 +547,24 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:12">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,72 +597,72 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" ht="45.95" customHeight="1">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
@@ -655,19 +671,29 @@
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="2" t="s">
@@ -676,14 +702,14 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -697,19 +723,29 @@
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="2" t="s">
@@ -718,14 +754,14 @@
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -734,15 +770,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:E10"/>
-    <mergeCell ref="F7:G10"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -753,6 +780,15 @@
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="L7:L10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:E10"/>
+    <mergeCell ref="F7:G10"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习进度/进度统计总表.xlsx
+++ b/学习进度/进度统计总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="7010"/>
+    <workbookView windowWidth="18530" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>第一周6月15日-6月19日</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>张智强</t>
+  </si>
+  <si>
+    <t>42/42</t>
+  </si>
+  <si>
+    <t>19/19</t>
+  </si>
+  <si>
+    <t>28/28</t>
   </si>
 </sst>
 </file>
@@ -113,13 +122,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -127,22 +212,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,13 +238,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,80 +259,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,16 +520,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -543,24 +576,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +594,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -582,32 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,7 +637,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,128 +646,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +791,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="B5:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1341,9 +1353,15 @@
         <v>18</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>

--- a/学习进度/进度统计总表.xlsx
+++ b/学习进度/进度统计总表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="7005"/>
+    <workbookView windowWidth="17930" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>第一周6月15日-6月19日</t>
   </si>
@@ -75,6 +75,18 @@
     <t>18/18</t>
   </si>
   <si>
+    <t>42/42</t>
+  </si>
+  <si>
+    <t>19/19</t>
+  </si>
+  <si>
+    <t>28/28</t>
+  </si>
+  <si>
+    <t>30/30</t>
+  </si>
+  <si>
     <t>刘雨缇</t>
   </si>
   <si>
@@ -82,33 +94,19 @@
   </si>
   <si>
     <t>张智强</t>
-  </si>
-  <si>
-    <t>18/18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>42/42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19/19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28/28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30/30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,21 +121,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -197,19 +519,273 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -219,26 +795,58 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -529,297 +1137,313 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B5:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="9.5"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:12">
-      <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" ht="14.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" ht="15" spans="2:12">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" ht="45.95" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+    <row r="10" ht="45.95" customHeight="1" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>26</v>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="I12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C7:C10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
     <mergeCell ref="D7:E10"/>
     <mergeCell ref="F7:G10"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习进度/进度统计总表.xlsx
+++ b/学习进度/进度统计总表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>第一周6月15日-6月19日</t>
   </si>
@@ -122,12 +122,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -135,49 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,46 +219,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,14 +259,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -274,97 +274,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,85 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +554,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +566,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,24 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -617,6 +608,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,7 +1146,7 @@
   <dimension ref="B5:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1324,7 +1324,9 @@
       <c r="I12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>

--- a/学习进度/进度统计总表.xlsx
+++ b/学习进度/进度统计总表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>第一周6月15日-6月19日</t>
   </si>
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -122,13 +122,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,22 +182,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,38 +227,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,13 +264,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -274,19 +274,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,25 +370,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,133 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +520,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,30 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,8 +558,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,15 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,7 +1146,7 @@
   <dimension ref="B5:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1385,8 +1385,12 @@
       <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/学习进度/进度统计总表.xlsx
+++ b/学习进度/进度统计总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="7010"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>第一周6月15日-6月19日</t>
   </si>
@@ -101,8 +101,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -122,44 +122,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,17 +220,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,8 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,30 +255,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,19 +274,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,163 +400,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +520,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -554,26 +589,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -594,21 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -625,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,34 +637,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,97 +670,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,10 +1146,10 @@
   <dimension ref="B5:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9.5"/>
   </cols>
@@ -1171,7 +1171,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" ht="15" spans="2:12">
+    <row r="6" ht="15.6" spans="2:12">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -1327,8 +1327,12 @@
       <c r="J12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="6" t="s">
@@ -1425,7 +1429,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1442,7 +1446,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
